--- a/InputData/plcy-schd/FoPITY/Fraction of Policy Implemented This Year.xlsx
+++ b/InputData/plcy-schd/FoPITY/Fraction of Policy Implemented This Year.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="11025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">FoPITY!$E$51</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">FoPITY!$E$52</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
@@ -54,12 +54,12 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0.47077199</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>RnD CCS fuel use reduction</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>elec non BAU guaranteed dispatch</t>
+  </si>
+  <si>
+    <t>indst convert natural gas use</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FoPITY!$B$59:$Q$59</c:f>
+              <c:f>FoPITY!$B$60:$Q$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -566,7 +569,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9839850904880734E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.7223627261625932E-2</c:v>
@@ -625,11 +628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151327104"/>
-        <c:axId val="151328640"/>
+        <c:axId val="191476480"/>
+        <c:axId val="191478016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151327104"/>
+        <c:axId val="191476480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -639,7 +642,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151328640"/>
+        <c:crossAx val="191478016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -647,7 +650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151328640"/>
+        <c:axId val="191478016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,14 +661,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151327104"/>
+        <c:crossAx val="191476480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -686,13 +688,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1004,16 +1006,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -1021,108 +1023,108 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>76</v>
       </c>
@@ -1130,7 +1132,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>73</v>
       </c>
@@ -1140,7 +1142,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>74</v>
       </c>
@@ -1170,21 +1172,21 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.7265625" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1237,7 +1239,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1245,67 +1247,66 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:Q6" si="0">(COLUMN(C$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.13333333333333333</v>
+        <f>(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f t="shared" ref="E2:Q2" si="0">(COLUMN(D$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1358,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1366,67 +1367,66 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" ref="D4:Q4" si="1">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="1"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="1"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
+        <f t="shared" si="1"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="1"/>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <f t="shared" si="1"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
+        <f t="shared" si="1"/>
+        <v>0.7857142857142857</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <f t="shared" si="1"/>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1434,67 +1434,66 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" ref="D5:Q5" si="2">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="2"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="2"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
+        <f t="shared" si="2"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="2"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f t="shared" si="2"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="2"/>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <f t="shared" si="2"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
+        <f t="shared" si="2"/>
+        <v>0.7857142857142857</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="2"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P5">
-        <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <f t="shared" si="2"/>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1502,67 +1501,66 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" ref="D6:Q6" si="3">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="3"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="3"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
+        <f t="shared" si="3"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="3"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f t="shared" si="3"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="3"/>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <f t="shared" si="3"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
+        <f t="shared" si="3"/>
+        <v>0.7857142857142857</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="3"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <f t="shared" si="3"/>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1570,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1615,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1623,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1668,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1676,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1721,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1729,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1774,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1827,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1835,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1880,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -1888,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1933,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1941,67 +1939,66 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:Q14" si="1">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" ref="D14:Q14" si="4">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="4"/>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="4"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
+        <f t="shared" si="4"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="4"/>
+        <v>0.5</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="4"/>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
-        <v>0.73333333333333328</v>
+        <f t="shared" si="4"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+        <f t="shared" si="4"/>
+        <v>0.7857142857142857</v>
       </c>
       <c r="O14">
-        <f t="shared" si="1"/>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="4"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P14">
-        <f t="shared" si="1"/>
-        <v>0.93333333333333335</v>
+        <f t="shared" si="4"/>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -2009,67 +2006,66 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:Q15" si="2">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" ref="D15:Q15" si="5">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
+        <f t="shared" si="5"/>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="5"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
+        <f t="shared" si="5"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="5"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="5"/>
+        <v>0.5</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
+        <f t="shared" si="5"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="5"/>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
-        <v>0.73333333333333328</v>
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+        <f t="shared" si="5"/>
+        <v>0.7857142857142857</v>
       </c>
       <c r="O15">
-        <f t="shared" si="2"/>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="5"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P15">
-        <f t="shared" si="2"/>
-        <v>0.93333333333333335</v>
+        <f t="shared" si="5"/>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -2077,67 +2073,66 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16" si="3">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16" si="4">(COLUMN(C$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.13333333333333333</v>
+        <f t="shared" ref="D16:Q16" si="6">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16" si="5">(COLUMN(D$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.2</v>
+        <f t="shared" si="6"/>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16" si="6">(COLUMN(E$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="6"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16" si="7">(COLUMN(F$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="6"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16" si="8">(COLUMN(G$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.4</v>
+        <f t="shared" si="6"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16" si="9">(COLUMN(H$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="6"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16" si="10">(COLUMN(I$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="6"/>
+        <v>0.5</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16" si="11">(COLUMN(J$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.6</v>
+        <f t="shared" si="6"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L16">
-        <f t="shared" ref="L16" si="12">(COLUMN(K$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="6"/>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16" si="13">(COLUMN(L$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.73333333333333328</v>
+        <f t="shared" si="6"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N16">
-        <f t="shared" ref="N16" si="14">(COLUMN(M$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.8</v>
+        <f t="shared" si="6"/>
+        <v>0.7857142857142857</v>
       </c>
       <c r="O16">
-        <f t="shared" ref="O16" si="15">(COLUMN(N$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P16">
-        <f t="shared" ref="P16" si="16">(COLUMN(O$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.93333333333333335</v>
+        <f t="shared" si="6"/>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Q16">
-        <f t="shared" ref="Q16" si="17">(COLUMN(P$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -2145,67 +2140,66 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:Q17" si="18">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <f t="shared" si="18"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" ref="D17:Q17" si="7">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E17">
-        <f t="shared" si="18"/>
-        <v>0.2</v>
+        <f t="shared" si="7"/>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F17">
-        <f t="shared" si="18"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="7"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G17">
-        <f t="shared" si="18"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="7"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H17">
-        <f t="shared" si="18"/>
-        <v>0.4</v>
+        <f t="shared" si="7"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I17">
-        <f t="shared" si="18"/>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="7"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J17">
-        <f t="shared" si="18"/>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="7"/>
+        <v>0.5</v>
       </c>
       <c r="K17">
-        <f t="shared" si="18"/>
-        <v>0.6</v>
+        <f t="shared" si="7"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L17">
-        <f t="shared" si="18"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="7"/>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M17">
-        <f t="shared" si="18"/>
-        <v>0.73333333333333328</v>
+        <f t="shared" si="7"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N17">
-        <f t="shared" si="18"/>
-        <v>0.8</v>
+        <f t="shared" si="7"/>
+        <v>0.7857142857142857</v>
       </c>
       <c r="O17">
-        <f t="shared" si="18"/>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="7"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P17">
-        <f t="shared" si="18"/>
-        <v>0.93333333333333335</v>
+        <f t="shared" si="7"/>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -2213,67 +2207,66 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:Q18" si="19">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <f t="shared" si="19"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" ref="D18:Q18" si="8">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E18">
-        <f t="shared" si="19"/>
-        <v>0.2</v>
+        <f t="shared" si="8"/>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F18">
-        <f t="shared" si="19"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="8"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G18">
-        <f t="shared" si="19"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="8"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H18">
-        <f t="shared" si="19"/>
-        <v>0.4</v>
+        <f t="shared" si="8"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I18">
-        <f t="shared" si="19"/>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="8"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J18">
-        <f t="shared" si="19"/>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="8"/>
+        <v>0.5</v>
       </c>
       <c r="K18">
-        <f t="shared" si="19"/>
-        <v>0.6</v>
+        <f t="shared" si="8"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L18">
-        <f t="shared" si="19"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="8"/>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M18">
-        <f t="shared" si="19"/>
-        <v>0.73333333333333328</v>
+        <f t="shared" si="8"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N18">
-        <f t="shared" si="19"/>
-        <v>0.8</v>
+        <f t="shared" si="8"/>
+        <v>0.7857142857142857</v>
       </c>
       <c r="O18">
-        <f t="shared" si="19"/>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="8"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P18">
-        <f t="shared" si="19"/>
-        <v>0.93333333333333335</v>
+        <f t="shared" si="8"/>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2281,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2326,7 +2319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2334,67 +2327,66 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:Q20" si="20">(COLUMN(C$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.13333333333333333</v>
+        <f>(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E20">
-        <f t="shared" si="20"/>
-        <v>0.2</v>
+        <f t="shared" ref="E20:Q20" si="9">(COLUMN(D$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F20">
-        <f t="shared" si="20"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="9"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G20">
-        <f t="shared" si="20"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="9"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H20">
-        <f t="shared" si="20"/>
-        <v>0.4</v>
+        <f t="shared" si="9"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I20">
-        <f t="shared" si="20"/>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="9"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J20">
-        <f t="shared" si="20"/>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="9"/>
+        <v>0.5</v>
       </c>
       <c r="K20">
-        <f t="shared" si="20"/>
-        <v>0.6</v>
+        <f t="shared" si="9"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L20">
-        <f t="shared" si="20"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="9"/>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M20">
-        <f t="shared" si="20"/>
-        <v>0.73333333333333328</v>
+        <f t="shared" si="9"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N20">
-        <f t="shared" si="20"/>
-        <v>0.8</v>
+        <f t="shared" si="9"/>
+        <v>0.7857142857142857</v>
       </c>
       <c r="O20">
-        <f t="shared" si="20"/>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="9"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P20">
-        <f t="shared" si="20"/>
-        <v>0.93333333333333335</v>
+        <f t="shared" si="9"/>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2402,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2447,7 +2439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2455,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2500,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -2508,67 +2500,66 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:Q23" si="21">(COLUMN(C$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.13333333333333333</v>
+        <f>(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E23">
-        <f t="shared" si="21"/>
-        <v>0.2</v>
+        <f t="shared" ref="E23:Q23" si="10">(COLUMN(D$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F23">
-        <f t="shared" si="21"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="10"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G23">
-        <f t="shared" si="21"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="10"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H23">
-        <f t="shared" si="21"/>
-        <v>0.4</v>
+        <f t="shared" si="10"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I23">
-        <f t="shared" si="21"/>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="10"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J23">
-        <f t="shared" si="21"/>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="10"/>
+        <v>0.5</v>
       </c>
       <c r="K23">
-        <f t="shared" si="21"/>
-        <v>0.6</v>
+        <f t="shared" si="10"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L23">
-        <f t="shared" si="21"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="10"/>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M23">
-        <f t="shared" si="21"/>
-        <v>0.73333333333333328</v>
+        <f t="shared" si="10"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N23">
-        <f t="shared" si="21"/>
-        <v>0.8</v>
+        <f t="shared" si="10"/>
+        <v>0.7857142857142857</v>
       </c>
       <c r="O23">
-        <f t="shared" si="21"/>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="10"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P23">
-        <f t="shared" si="21"/>
-        <v>0.93333333333333335</v>
+        <f t="shared" si="10"/>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -2576,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2621,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2629,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2674,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -2682,67 +2673,66 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:Q26" si="22">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <f t="shared" si="22"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" ref="D26:Q26" si="11">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E26">
-        <f t="shared" si="22"/>
-        <v>0.2</v>
+        <f t="shared" si="11"/>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F26">
-        <f t="shared" si="22"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="11"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G26">
-        <f t="shared" si="22"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="11"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H26">
-        <f t="shared" si="22"/>
-        <v>0.4</v>
+        <f t="shared" si="11"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I26">
-        <f t="shared" si="22"/>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="11"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J26">
-        <f t="shared" si="22"/>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="11"/>
+        <v>0.5</v>
       </c>
       <c r="K26">
-        <f t="shared" si="22"/>
-        <v>0.6</v>
+        <f t="shared" si="11"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26">
-        <f t="shared" si="22"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="11"/>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M26">
-        <f t="shared" si="22"/>
-        <v>0.73333333333333328</v>
+        <f t="shared" si="11"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N26">
-        <f t="shared" si="22"/>
-        <v>0.8</v>
+        <f t="shared" si="11"/>
+        <v>0.7857142857142857</v>
       </c>
       <c r="O26">
-        <f t="shared" si="22"/>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="11"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P26">
-        <f t="shared" si="22"/>
-        <v>0.93333333333333335</v>
+        <f t="shared" si="11"/>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -2750,67 +2740,66 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:Q27" si="23">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <f t="shared" si="23"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" ref="D27:Q27" si="12">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="23"/>
-        <v>0.2</v>
+        <f t="shared" si="12"/>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F27">
-        <f t="shared" si="23"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="12"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G27">
-        <f t="shared" si="23"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="12"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H27">
-        <f t="shared" si="23"/>
-        <v>0.4</v>
+        <f t="shared" si="12"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I27">
-        <f t="shared" si="23"/>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="12"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J27">
-        <f t="shared" si="23"/>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="12"/>
+        <v>0.5</v>
       </c>
       <c r="K27">
-        <f t="shared" si="23"/>
-        <v>0.6</v>
+        <f t="shared" si="12"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L27">
-        <f t="shared" si="23"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="12"/>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M27">
-        <f t="shared" si="23"/>
-        <v>0.73333333333333328</v>
+        <f t="shared" si="12"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N27">
-        <f t="shared" si="23"/>
-        <v>0.8</v>
+        <f t="shared" si="12"/>
+        <v>0.7857142857142857</v>
       </c>
       <c r="O27">
-        <f t="shared" si="23"/>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="12"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P27">
-        <f t="shared" si="23"/>
-        <v>0.93333333333333335</v>
+        <f t="shared" si="12"/>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2818,67 +2807,66 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:Q28" si="24">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <f t="shared" si="24"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" ref="D28:Q28" si="13">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E28">
-        <f t="shared" si="24"/>
-        <v>0.2</v>
+        <f t="shared" si="13"/>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F28">
-        <f t="shared" si="24"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="13"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G28">
-        <f t="shared" si="24"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="13"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H28">
-        <f t="shared" si="24"/>
-        <v>0.4</v>
+        <f t="shared" si="13"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I28">
-        <f t="shared" si="24"/>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="13"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J28">
-        <f t="shared" si="24"/>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="13"/>
+        <v>0.5</v>
       </c>
       <c r="K28">
-        <f t="shared" si="24"/>
-        <v>0.6</v>
+        <f t="shared" si="13"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L28">
-        <f t="shared" si="24"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="13"/>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M28">
-        <f t="shared" si="24"/>
-        <v>0.73333333333333328</v>
+        <f t="shared" si="13"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N28">
-        <f t="shared" si="24"/>
-        <v>0.8</v>
+        <f t="shared" si="13"/>
+        <v>0.7857142857142857</v>
       </c>
       <c r="O28">
-        <f t="shared" si="24"/>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="13"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P28">
-        <f t="shared" si="24"/>
-        <v>0.93333333333333335</v>
+        <f t="shared" si="13"/>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -2886,67 +2874,66 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:Q29" si="25">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <f t="shared" si="25"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" ref="D29:Q29" si="14">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E29">
-        <f t="shared" si="25"/>
-        <v>0.2</v>
+        <f t="shared" si="14"/>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F29">
-        <f t="shared" si="25"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="14"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G29">
-        <f t="shared" si="25"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="14"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H29">
-        <f t="shared" si="25"/>
-        <v>0.4</v>
+        <f t="shared" si="14"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I29">
-        <f t="shared" si="25"/>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="14"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J29">
-        <f t="shared" si="25"/>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="14"/>
+        <v>0.5</v>
       </c>
       <c r="K29">
-        <f t="shared" si="25"/>
-        <v>0.6</v>
+        <f t="shared" si="14"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L29">
-        <f t="shared" si="25"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="14"/>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M29">
-        <f t="shared" si="25"/>
-        <v>0.73333333333333328</v>
+        <f t="shared" si="14"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N29">
-        <f t="shared" si="25"/>
-        <v>0.8</v>
+        <f t="shared" si="14"/>
+        <v>0.7857142857142857</v>
       </c>
       <c r="O29">
-        <f t="shared" si="25"/>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="14"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P29">
-        <f t="shared" si="25"/>
-        <v>0.93333333333333335</v>
+        <f t="shared" si="14"/>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2954,67 +2941,66 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:Q30" si="26">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <f t="shared" si="26"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" ref="D30:Q30" si="15">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E30">
-        <f t="shared" si="26"/>
-        <v>0.2</v>
+        <f t="shared" si="15"/>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F30">
-        <f t="shared" si="26"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="15"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G30">
-        <f t="shared" si="26"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="15"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H30">
-        <f t="shared" si="26"/>
-        <v>0.4</v>
+        <f t="shared" si="15"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I30">
-        <f t="shared" si="26"/>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="15"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J30">
-        <f t="shared" si="26"/>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="15"/>
+        <v>0.5</v>
       </c>
       <c r="K30">
-        <f t="shared" si="26"/>
-        <v>0.6</v>
+        <f t="shared" si="15"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L30">
-        <f t="shared" si="26"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="15"/>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M30">
-        <f t="shared" si="26"/>
-        <v>0.73333333333333328</v>
+        <f t="shared" si="15"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N30">
-        <f t="shared" si="26"/>
-        <v>0.8</v>
+        <f t="shared" si="15"/>
+        <v>0.7857142857142857</v>
       </c>
       <c r="O30">
-        <f t="shared" si="26"/>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="15"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P30">
-        <f t="shared" si="26"/>
-        <v>0.93333333333333335</v>
+        <f t="shared" si="15"/>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -3022,1308 +3008,1291 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:Q31" si="27">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <f t="shared" si="27"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" ref="D31:Q31" si="16">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E31">
-        <f t="shared" si="27"/>
-        <v>0.2</v>
+        <f t="shared" si="16"/>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F31">
-        <f t="shared" si="27"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="16"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G31">
-        <f t="shared" si="27"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="16"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H31">
-        <f t="shared" si="27"/>
-        <v>0.4</v>
+        <f t="shared" si="16"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I31">
-        <f t="shared" si="27"/>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="16"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J31">
-        <f t="shared" si="27"/>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="16"/>
+        <v>0.5</v>
       </c>
       <c r="K31">
-        <f t="shared" si="27"/>
-        <v>0.6</v>
+        <f t="shared" si="16"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L31">
-        <f t="shared" si="27"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="16"/>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M31">
-        <f t="shared" si="27"/>
-        <v>0.73333333333333328</v>
+        <f t="shared" si="16"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N31">
-        <f t="shared" si="27"/>
-        <v>0.8</v>
+        <f t="shared" si="16"/>
+        <v>0.7857142857142857</v>
       </c>
       <c r="O31">
-        <f t="shared" si="27"/>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="16"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P31">
-        <f t="shared" si="27"/>
-        <v>0.93333333333333335</v>
+        <f t="shared" si="16"/>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:Q32" si="17">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="17"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="17"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="17"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="17"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="17"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="17"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="17"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="17"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="17"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="17"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="17"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:Q33" si="18">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="18"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="18"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="18"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="18"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="18"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="18"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="18"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="18"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="18"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="18"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="18"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:Q34" si="19">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="19"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="19"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="19"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="19"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="19"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="19"/>
+        <v>0.5</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="19"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="19"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="19"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="19"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="19"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="19"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>23</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ref="C32:Q32" si="28">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="28"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="28"/>
-        <v>0.2</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="28"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="28"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="28"/>
-        <v>0.4</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="28"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="28"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="28"/>
-        <v>0.6</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="28"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="28"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="28"/>
-        <v>0.8</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="28"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="28"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:Q35" si="20">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="20"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="20"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="20"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="20"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="20"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="20"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="20"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="20"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="20"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="20"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="20"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>24</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ref="C33:Q33" si="29">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="29"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="29"/>
-        <v>0.2</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="29"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="29"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="29"/>
-        <v>0.4</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="29"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="29"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="29"/>
-        <v>0.6</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="29"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="29"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="29"/>
-        <v>0.8</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="29"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="29"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:Q36" si="21">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="21"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="21"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="21"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="21"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="21"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="21"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="21"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="21"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="21"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="21"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="21"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>25</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ref="C34:Q34" si="30">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="30"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="30"/>
-        <v>0.2</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="30"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="30"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="30"/>
-        <v>0.4</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="30"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="30"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="30"/>
-        <v>0.6</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="30"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="30"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="30"/>
-        <v>0.8</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="30"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="30"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:Q37" si="22">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="22"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="22"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="22"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="22"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="22"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="22"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="22"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="22"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="22"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="22"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="22"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:Q38" si="23">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="23"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="23"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="23"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="23"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="23"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="23"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="23"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="23"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="23"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="23"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="23"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>26</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ref="C35:Q35" si="31">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="31"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="31"/>
-        <v>0.2</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="31"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="31"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="31"/>
-        <v>0.4</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="31"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="31"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="31"/>
-        <v>0.6</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="31"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="31"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="31"/>
-        <v>0.8</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="31"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="31"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ref="C36:Q36" si="32">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="32"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="32"/>
-        <v>0.2</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="32"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="32"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="32"/>
-        <v>0.4</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="32"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="32"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="32"/>
-        <v>0.6</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="32"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="32"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="32"/>
-        <v>0.8</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="32"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="32"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ref="C37:Q37" si="33">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="33"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="33"/>
-        <v>0.2</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="33"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="33"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="33"/>
-        <v>0.4</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="33"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="33"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="33"/>
-        <v>0.6</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="33"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="33"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="33"/>
-        <v>0.8</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="33"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="33"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ref="C38:Q38" si="34">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="34"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="34"/>
-        <v>0.2</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="34"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="34"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="34"/>
-        <v>0.4</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="34"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="34"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="34"/>
-        <v>0.6</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="34"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="34"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="34"/>
-        <v>0.8</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="34"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="34"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>70</v>
-      </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:Q39" si="35">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <f t="shared" si="35"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" ref="D39:Q39" si="24">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E39">
-        <f t="shared" si="35"/>
-        <v>0.2</v>
+        <f t="shared" si="24"/>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F39">
-        <f t="shared" si="35"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="24"/>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G39">
-        <f t="shared" si="35"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="24"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H39">
-        <f t="shared" si="35"/>
-        <v>0.4</v>
+        <f t="shared" si="24"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I39">
-        <f t="shared" si="35"/>
-        <v>0.46666666666666667</v>
+        <f t="shared" si="24"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J39">
-        <f t="shared" si="35"/>
-        <v>0.53333333333333333</v>
+        <f t="shared" si="24"/>
+        <v>0.5</v>
       </c>
       <c r="K39">
-        <f t="shared" si="35"/>
-        <v>0.6</v>
+        <f t="shared" si="24"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L39">
-        <f t="shared" si="35"/>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="24"/>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M39">
-        <f t="shared" si="35"/>
-        <v>0.73333333333333328</v>
+        <f t="shared" si="24"/>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N39">
-        <f t="shared" si="35"/>
-        <v>0.8</v>
+        <f t="shared" si="24"/>
+        <v>0.7857142857142857</v>
       </c>
       <c r="O39">
-        <f t="shared" si="35"/>
-        <v>0.8666666666666667</v>
+        <f t="shared" si="24"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P39">
-        <f t="shared" si="35"/>
-        <v>0.93333333333333335</v>
+        <f t="shared" si="24"/>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="25">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="26">(COLUMN(D$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40" si="27">(COLUMN(E$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ref="G40" si="28">(COLUMN(F$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ref="H40" si="29">(COLUMN(G$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ref="I40" si="30">(COLUMN(H$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ref="J40" si="31">(COLUMN(I$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ref="K40" si="32">(COLUMN(J$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ref="L40" si="33">(COLUMN(K$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M40">
+        <f t="shared" ref="M40" si="34">(COLUMN(L$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N40">
+        <f t="shared" ref="N40" si="35">(COLUMN(M$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="O40">
+        <f t="shared" ref="O40" si="36">(COLUMN(N$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P40">
+        <f t="shared" ref="P40" si="37">(COLUMN(O$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" ref="Q40" si="38">(COLUMN(P$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>28</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ref="C40:Q40" si="36">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="36"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="36"/>
-        <v>0.2</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="36"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="36"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="36"/>
-        <v>0.4</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="36"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="36"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="36"/>
-        <v>0.6</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="36"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="36"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="36"/>
-        <v>0.8</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="36"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="36"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41:Q41" si="39">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="39"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="39"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="39"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="39"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="39"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="39"/>
+        <v>0.5</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="39"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="39"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="39"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="39"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="39"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="39"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>29</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ref="C41:Q41" si="37">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="37"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="37"/>
-        <v>0.2</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="37"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="37"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="37"/>
-        <v>0.4</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="37"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="37"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="37"/>
-        <v>0.6</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="37"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="37"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="37"/>
-        <v>0.8</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="37"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="37"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:Q42" si="40">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="40"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="40"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="40"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="40"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="40"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="40"/>
+        <v>0.5</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="40"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="40"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="40"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="40"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="40"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="40"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>30</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ref="C42:Q42" si="38">(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="38"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="38"/>
-        <v>0.2</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="38"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="38"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="38"/>
-        <v>0.4</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="38"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="38"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="38"/>
-        <v>0.6</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="38"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="38"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="38"/>
-        <v>0.8</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="38"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="38"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:Q43" si="41">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="41"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="41"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="41"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="41"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="41"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="41"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="41"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="41"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="41"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="41"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="41"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>31</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
-      <c r="P43">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>32</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>1</v>
-      </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>33</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D45">
-        <f t="shared" ref="D45:Q45" si="39">(COLUMN(C$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="39"/>
-        <v>0.2</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="39"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="39"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="39"/>
-        <v>0.4</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="39"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="39"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="39"/>
-        <v>0.6</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="39"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="39"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="39"/>
-        <v>0.8</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="39"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="39"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f>(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46:Q46" si="42">(COLUMN(D$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="42"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="42"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="42"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="42"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="42"/>
+        <v>0.5</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="42"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="42"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="42"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="42"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="42"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="42"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>77</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>1</v>
-      </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>72</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>71</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D48">
-        <f t="shared" ref="D48:Q48" si="40">(COLUMN(C$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="40"/>
-        <v>0.2</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="40"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="40"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="40"/>
-        <v>0.4</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="40"/>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="40"/>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="40"/>
-        <v>0.6</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="40"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="40"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="40"/>
-        <v>0.8</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="40"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="40"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49:Q49" si="43">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="43"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="43"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="43"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="43"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="43"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="43"/>
+        <v>0.5</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="43"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="43"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="43"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="43"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="43"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="43"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>80</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <f>(COLUMN(B$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D49">
-        <f t="shared" ref="D49" si="41">(COLUMN(C$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="E49">
-        <f t="shared" ref="E49" si="42">(COLUMN(D$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.2</v>
-      </c>
-      <c r="F49">
-        <f t="shared" ref="F49" si="43">(COLUMN(E$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="G49">
-        <f t="shared" ref="G49" si="44">(COLUMN(F$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H49">
-        <f t="shared" ref="H49" si="45">(COLUMN(G$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.4</v>
-      </c>
-      <c r="I49">
-        <f t="shared" ref="I49" si="46">(COLUMN(H$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="J49">
-        <f t="shared" ref="J49" si="47">(COLUMN(I$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="K49">
-        <f t="shared" ref="K49" si="48">(COLUMN(J$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.6</v>
-      </c>
-      <c r="L49">
-        <f t="shared" ref="L49" si="49">(COLUMN(K$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M49">
-        <f t="shared" ref="M49" si="50">(COLUMN(L$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="N49">
-        <f t="shared" ref="N49" si="51">(COLUMN(M$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.8</v>
-      </c>
-      <c r="O49">
-        <f t="shared" ref="O49" si="52">(COLUMN(N$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="P49">
-        <f t="shared" ref="P49" si="53">(COLUMN(O$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" ref="Q49" si="54">(COLUMN(P$1)-1)/COUNT($C$1:$S$1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50:Q50" si="44">(COLUMN(C$1)-2)/COUNT($D$1:$Q$1)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="44"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="44"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="44"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="44"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="44"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="44"/>
+        <v>0.5</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="44"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="44"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="44"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="44"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="44"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="44"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>34</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(About!$B$32)))</f>
-        <v>2.9839850904880734E-2</v>
-      </c>
-      <c r="D50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:D$1)+About!$B$32)))</f>
-        <v>7.7223627261625932E-2</v>
-      </c>
-      <c r="E50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:E$1)+About!$B$32)))</f>
-        <v>0.12134857461851567</v>
-      </c>
-      <c r="F50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:F$1)+About!$B$32)))</f>
-        <v>0.18570918323487076</v>
-      </c>
-      <c r="G50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:G$1)+About!$B$32)))</f>
-        <v>0.27378236695465502</v>
-      </c>
-      <c r="H50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:H$1)+About!$B$32)))</f>
-        <v>0.38433640083651205</v>
-      </c>
-      <c r="I50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:I$1)+About!$B$32)))</f>
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="J50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:J$1)+About!$B$32)))</f>
-        <v>0.63366359916348791</v>
-      </c>
-      <c r="K50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:K$1)+About!$B$32)))</f>
-        <v>0.74421763304534494</v>
-      </c>
-      <c r="L50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:L$1)+About!$B$32)))</f>
-        <v>0.83229081676512917</v>
-      </c>
-      <c r="M50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:M$1)+About!$B$32)))</f>
-        <v>0.89665142538148424</v>
-      </c>
-      <c r="N50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:N$1)+About!$B$32)))</f>
-        <v>0.94077637273837411</v>
-      </c>
-      <c r="O50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:O$1)+About!$B$32)))</f>
-        <v>0.96972046110523713</v>
-      </c>
-      <c r="P50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:P$1)+About!$B$32)))</f>
-        <v>0.98816014909511918</v>
-      </c>
-      <c r="Q50">
-        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:Q$1)+About!$B$32)))</f>
-        <v>0.99969003825859082</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>35</v>
-      </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <f>About!$B$30/(1+EXP(About!$B$31*(About!$B$32)))</f>
-        <v>2.9839850904880734E-2</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:D$1)+About!$B$32)))</f>
@@ -4382,16 +4351,15 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <f>About!$B$30/(1+EXP(About!$B$31*(About!$B$32)))</f>
-        <v>2.9839850904880734E-2</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:D$1)+About!$B$32)))</f>
@@ -4450,16 +4418,15 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <f>About!$B$30/(1+EXP(About!$B$31*(About!$B$32)))</f>
-        <v>2.9839850904880734E-2</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:D$1)+About!$B$32)))</f>
@@ -4518,16 +4485,15 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <f>About!$B$30/(1+EXP(About!$B$31*(About!$B$32)))</f>
-        <v>2.9839850904880734E-2</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:D$1)+About!$B$32)))</f>
@@ -4586,16 +4552,15 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <f>About!$B$30/(1+EXP(About!$B$31*(About!$B$32)))</f>
-        <v>2.9839850904880734E-2</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:D$1)+About!$B$32)))</f>
@@ -4654,16 +4619,15 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <f>About!$B$30/(1+EXP(About!$B$31*(About!$B$32)))</f>
-        <v>2.9839850904880734E-2</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:D$1)+About!$B$32)))</f>
@@ -4722,16 +4686,15 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <f>About!$B$30/(1+EXP(About!$B$31*(About!$B$32)))</f>
-        <v>2.9839850904880734E-2</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:D$1)+About!$B$32)))</f>
@@ -4790,16 +4753,15 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <f>About!$B$30/(1+EXP(About!$B$31*(About!$B$32)))</f>
-        <v>2.9839850904880734E-2</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:D$1)+About!$B$32)))</f>
@@ -4858,16 +4820,15 @@
         <v>0.99969003825859082</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <f>About!$B$30/(1+EXP(About!$B$31*(About!$B$32)))</f>
-        <v>2.9839850904880734E-2</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:D$1)+About!$B$32)))</f>
@@ -4922,6 +4883,73 @@
         <v>0.98816014909511918</v>
       </c>
       <c r="Q59">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:Q$1)+About!$B$32)))</f>
+        <v>0.99969003825859082</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:D$1)+About!$B$32)))</f>
+        <v>7.7223627261625932E-2</v>
+      </c>
+      <c r="E60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:E$1)+About!$B$32)))</f>
+        <v>0.12134857461851567</v>
+      </c>
+      <c r="F60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:F$1)+About!$B$32)))</f>
+        <v>0.18570918323487076</v>
+      </c>
+      <c r="G60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:G$1)+About!$B$32)))</f>
+        <v>0.27378236695465502</v>
+      </c>
+      <c r="H60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:H$1)+About!$B$32)))</f>
+        <v>0.38433640083651205</v>
+      </c>
+      <c r="I60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:I$1)+About!$B$32)))</f>
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="J60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:J$1)+About!$B$32)))</f>
+        <v>0.63366359916348791</v>
+      </c>
+      <c r="K60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:K$1)+About!$B$32)))</f>
+        <v>0.74421763304534494</v>
+      </c>
+      <c r="L60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:L$1)+About!$B$32)))</f>
+        <v>0.83229081676512917</v>
+      </c>
+      <c r="M60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:M$1)+About!$B$32)))</f>
+        <v>0.89665142538148424</v>
+      </c>
+      <c r="N60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:N$1)+About!$B$32)))</f>
+        <v>0.94077637273837411</v>
+      </c>
+      <c r="O60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:O$1)+About!$B$32)))</f>
+        <v>0.96972046110523713</v>
+      </c>
+      <c r="P60">
+        <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:P$1)+About!$B$32)))</f>
+        <v>0.98816014909511918</v>
+      </c>
+      <c r="Q60">
         <f>About!$B$30/(1+EXP(About!$B$31*(COUNT($C$1:Q$1)+About!$B$32)))</f>
         <v>0.99969003825859082</v>
       </c>
